--- a/Dados/26-jun.xlsx
+++ b/Dados/26-jun.xlsx
@@ -4741,7 +4741,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B337" t="n">
